--- a/theo/outputs/EOG/correlations.xlsx
+++ b/theo/outputs/EOG/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.4400468425127315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.04577440460013172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.03735585986378942</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.3182022685893358</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.432490547032345</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.02859375367680789</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02851525914677657</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3258598492831946</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3203608623552378</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.02859375367680789</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02851525914677657</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3258598492831946</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3203608623552378</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.03895733941110614</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.01523750962459022</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.02822160425456255</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.4400468425127315</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.02632723943555292</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.001257792180440316</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.004820789107669646</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4774728857181851</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.07694763289881643</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.07699165080395216</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.2598425384826177</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.263375383225427</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.1082841980259263</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.108211111972621</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.2158915184889243</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.2192442525682225</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.0819818194104672</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.09553893401292608</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.05011918984516618</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.04577440460013172</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.02632723943555292</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8673005412457775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.03053028693108445</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.03868735025714041</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.0218565902238493</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.02209279986477149</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.007575389972127738</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.006580509468318202</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.03598759927410801</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.03930280106176597</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.04433599024892394</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.04276159830128765</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.183983997162889</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.06012505188649265</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9807953367651374</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.03735585986378942</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.001257792180440316</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8673005412457775</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.08922166456860939</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.03483956944774851</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.04777048963535085</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.04876848667392109</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.03730256313730526</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.03715735146084116</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1797492293613552</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1812184388465419</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1083584710494771</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1069808481684547</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.3297178775368428</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1250761819250828</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.8040648864083343</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.3182022685893358</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.004820789107669646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.03053028693108445</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.08922166456860939</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.3904832936731122</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.06436487678543551</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.06459867351338018</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.4329317366013696</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.4370503634419342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1007874937778703</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1010670950855678</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.4394369508291712</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.4436673900569434</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1182751199262501</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.004301947228496975</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.06338397429779546</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.432490547032345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4774728857181851</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.03868735025714041</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.03483956944774851</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.3904832936731122</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1137486090256676</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1126470091312845</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.724398089630939</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.7217075922858667</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1181628024710187</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1180688935649931</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.7251618389608574</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.7226791720431848</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.004578490338293217</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>-1.483707633265822e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.006834955481054067</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.02859375367680789</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.07694763289881643</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.0218565902238493</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.04777048963535085</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.06436487678543551</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1137486090256676</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998421850384035</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1782824386963112</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1788938664986584</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.05305538256160161</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.05279651091354009</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1700396792532371</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1704667650662813</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.07216200036525704</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.08728094695593802</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.01743001018086425</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02851525914677657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.07699165080395216</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.02209279986477149</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.04876848667392109</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.06459867351338018</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1126470091312845</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998421850384035</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1779730201097752</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1786073961630964</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.05361422746140151</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.05339945523908089</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1695566082941127</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1700030868883483</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.07276800201020178</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.08759333165869605</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.01692247544159001</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3258598492831946</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.2598425384826177</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.007575389972127738</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.03730256313730526</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.4329317366013696</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.724398089630939</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1782824386963112</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1779730201097752</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998149401083893</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.01741813108017271</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.01763424073607406</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9708931502023688</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9708064592422868</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.05929069294275163</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.0749430924608626</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.03181152075711878</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3203608623552378</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.263375383225427</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.006580509468318202</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.03715735146084116</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.4370503634419342</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.7217075922858667</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1788938664986584</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1786073961630964</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998149401083893</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.01678950489578911</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.01698558937170961</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9707752296742529</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9710430750707351</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.06089080888239869</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.07533174065264378</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.03317256191807803</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.02859375367680789</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.1082841980259263</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.03598759927410801</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1797492293613552</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1007874937778703</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1181628024710187</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.05305538256160161</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.05361422746140151</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.01741813108017271</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.01678950489578911</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998421850384035</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1782824386963112</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1788938664986584</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.1402672596370248</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.02030474992546843</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.0556770840462638</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.02851525914677657</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.108211111972621</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.03930280106176597</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1812184388465419</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1010670950855678</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1180688935649931</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.05279651091354009</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.05339945523908089</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.01763424073607406</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.01698558937170961</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998421850384035</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1779730201097752</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1786073961630964</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.1416957982867803</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.02036458823935833</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.05606265740792237</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3258598492831946</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.2158915184889243</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.04433599024892394</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1083584710494771</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.4394369508291712</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.7251618389608574</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1700396792532371</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1695566082941127</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9708931502023688</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9707752296742529</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1782824386963112</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1779730201097752</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998149401083893</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1045553171497463</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.0802813900417476</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.01498300394378097</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3203608623552378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.2192442525682225</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.04276159830128765</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1069808481684547</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.4436673900569434</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.7226791720431848</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1704667650662813</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1700030868883483</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9708064592422868</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9710430750707351</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1788938664986584</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1786073961630964</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998149401083893</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.1051482936928149</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.08051006012856907</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.01270206838556712</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.03895733941110614</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.0819818194104672</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.183983997162889</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.3297178775368428</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1182751199262501</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.004578490338293217</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.07216200036525704</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.07276800201020178</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.05929069294275163</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.06089080888239869</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.1402672596370248</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.1416957982867803</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1045553171497463</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.1051482936928149</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.3610070910407338</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.2724267124443404</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.01523750962459022</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.09553893401292608</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.06012505188649265</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1250761819250828</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.004301947228496975</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>-1.483707633265822e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.08728094695593802</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.08759333165869605</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.0749430924608626</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.07533174065264378</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.02030474992546843</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.02036458823935833</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.0802813900417476</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.08051006012856907</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.3610070910407338</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.06065568011215026</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.02822160425456255</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.05011918984516618</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9807953367651374</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.8040648864083343</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.06338397429779546</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.006834955481054067</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.01743001018086425</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.01692247544159001</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.03181152075711878</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.03317256191807803</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.0556770840462638</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.05606265740792237</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.01498300394378097</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.01270206838556712</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.2724267124443404</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.06065568011215026</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.5852953002337351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.06946773827919743</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.06889223660085307</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2967413935129379</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.556272905779156</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.0219717042305285</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02135936798400974</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.06067205913013143</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.06051159572985532</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.0219717042305285</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02135936798400974</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.06067205913013143</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.06051159572985532</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.005011068347219864</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.04795892285206038</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.003389965523915884</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.5852953002337351</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.04262870584241227</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.03422666337039051</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1884315851382926</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8959959574284676</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.02634561382882459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.02698492924148629</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.1706265501588092</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.1697310874411165</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05348162097194432</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05277005454622557</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.1555385229406694</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.1546515000450487</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.008452030101734731</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.02197966864042738</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.01488998889704427</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.06946773827919743</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.04262870584241227</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.4293817428651103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.05061935228096509</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.03554997305688356</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.04978961264462867</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.05333158593845704</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.01473424911834483</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.01632220949003498</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.08927461406220408</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.09040127565451561</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.0120953083666478</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.009838309552790104</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5322462512273705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2481268732721179</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9386240115494003</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.06889223660085307</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.03422666337039051</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.4293817428651103</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2357897436348914</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.04353191431370226</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.09154930484978806</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.09145516796489765</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.02270626516639567</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.02074878774465077</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.07168438804664178</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.07220399506490975</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.0499359089416565</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.04746316183894068</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5360377818824038</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1087704072925064</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3879524807707839</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2967413935129379</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1884315851382926</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.05061935228096509</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2357897436348914</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.1846217466570967</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.004839181800687676</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.005533210848226115</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.00288035434540005</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.00347600896336676</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.006300714376656079</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.007123836868908418</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.002675251238984552</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.00371575290894831</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1737134062046795</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1380595641586007</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.05994179021484936</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.556272905779156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8959959574284676</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.03554997305688356</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.04353191431370226</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.1846217466570967</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05128429762777845</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05064471379973327</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2846696783068873</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2852280021721073</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.05591568350963936</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.0546879305018871</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2854884251535245</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2859528951881644</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.007576588094034866</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.06581752732849735</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.007088527852128847</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.0219717042305285</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.02634561382882459</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.04978961264462867</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.09154930484978806</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.004839181800687676</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05128429762777845</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9990858956056574</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1813738644775572</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1812803564486905</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06258704505276703</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06003663987487658</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1750189920860109</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1748137454042329</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1359762939746428</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.02657035171397866</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.02987602664359097</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02135936798400974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.02698492924148629</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.05333158593845704</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.09145516796489765</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.005533210848226115</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05064471379973327</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9990858956056574</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.180823460808194</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1809688436205804</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.0608017297237921</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.05843498238293888</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1746854249888757</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.174700869989629</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1389897957653162</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.02867025654352221</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.033331869595299</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.06067205913013143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.1706265501588092</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.01473424911834483</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.02270626516639567</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.00288035434540005</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2846696783068873</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1813738644775572</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.180823460808194</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993057795369633</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.007017434144234981</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.007386596920271689</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9663652699843788</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.965641922673499</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.03505773743620785</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.09859449571038256</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.01641514499039497</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.06051159572985532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.1697310874411165</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.01632220949003498</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.02074878774465077</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.00347600896336676</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2852280021721073</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1812803564486905</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1809688436205804</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993057795369633</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.006840883357434368</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.007243627761831691</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.965903130120583</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9665207461528815</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.03470713916397349</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.09598164522737877</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.01711003818477893</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.0219717042305285</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05348162097194432</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.08927461406220408</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.07168438804664178</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.006300714376656079</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.05591568350963936</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06258704505276703</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.0608017297237921</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.007017434144234981</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.006840883357434368</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9990858956056574</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1813738644775572</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1812803564486905</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.007423127527631405</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.01659142947422602</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.0509760492711259</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02135936798400974</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05277005454622557</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.09040127565451561</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.07220399506490975</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.007123836868908418</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.0546879305018871</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06003663987487658</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.05843498238293888</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.007386596920271689</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.007243627761831691</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9990858956056574</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.180823460808194</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1809688436205804</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.008317989231794075</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.01777495873951394</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.05277823524900121</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.06067205913013143</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.1555385229406694</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.0120953083666478</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.0499359089416565</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.002675251238984552</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2854884251535245</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1750189920860109</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1746854249888757</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9663652699843788</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.965903130120583</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1813738644775572</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.180823460808194</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993057795369633</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.03874396429292416</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.09779820256324624</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.0006237550812862074</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.06051159572985532</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.1546515000450487</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.009838309552790104</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.04746316183894068</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.00371575290894831</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2859528951881644</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1748137454042329</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.174700869989629</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.965641922673499</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9665207461528815</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1812803564486905</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1809688436205804</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9993057795369633</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.0383578849387035</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.09499226531942376</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.0009631368092883473</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.005011068347219864</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.008452030101734731</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5322462512273705</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5360377818824038</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1737134062046795</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.007576588094034866</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1359762939746428</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1389897957653162</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.03505773743620785</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.03470713916397349</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.007423127527631405</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.008317989231794075</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.03874396429292416</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.0383578849387035</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3338981281672548</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5137109496746728</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.04795892285206038</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.02197966864042738</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2481268732721179</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1087704072925064</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1380595641586007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.06581752732849735</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.02657035171397866</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.02867025654352221</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.09859449571038256</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.09598164522737877</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.01659142947422602</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.01777495873951394</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.09779820256324624</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.09499226531942376</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3338981281672548</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2342295076668542</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.003389965523915884</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.01488998889704427</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9386240115494003</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3879524807707839</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.05994179021484936</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.007088527852128847</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.02987602664359097</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.033331869595299</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.01641514499039497</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.01711003818477893</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.0509760492711259</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.05277823524900121</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.0006237550812862074</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.0009631368092883473</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5137109496746728</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2342295076668542</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.3999475545752155</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.03410104303088935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.03223528290913639</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.1628758996638861</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.4145806672943996</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.010949760017079</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01119964179079312</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.09877795928101593</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.09988707284289799</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.010949760017079</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01119964179079312</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.09877795928101593</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.09988707284289799</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.0057198639122925</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.01459529511211683</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.0004309984725066209</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.3999475545752155</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.01240774589933865</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.01192540626686073</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.05787264244296277</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9528911541315414</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02649837794886936</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02619800157506115</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1212003767791936</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1146286388595848</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03183836211167393</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03193693123374369</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1107454872358377</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1042772118317857</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.002525215928452512</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.01212690690884965</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.007713874968821352</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.03410104303088935</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.01240774589933865</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.5411792257496434</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.0535961447972387</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.01677649587371741</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.00216943791457092</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.0002617846905716489</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>0.008458274192584575</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.006732775632667945</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.0006027880038255953</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>7.802474915632231e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.002380666705134058</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.00121530259207331</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4794599807266118</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2046695256105535</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9434392686286364</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.03223528290913639</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.01192540626686073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.5411792257496434</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.203138907743229</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.0108560411311801</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.002452847697527288</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.002136426551916717</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.0031064600590342</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.007488645734608299</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.07147416745687842</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.07005205466780576</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01320926329927268</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.00760293083578353</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4784759567083854</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1065686406158044</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.47233935114864</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.1628758996638861</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.05787264244296277</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.0535961447972387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.203138907743229</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.06488506949869291</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.003150007401004787</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0006049766702903067</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.02485706331674664</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.005177028076675237</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.0114441194205513</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.009129979013512082</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.02640805621108534</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.0067412787320531</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1560273465622858</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1026458729864969</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.07537909183331307</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.4145806672943996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9528911541315414</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.01677649587371741</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.0108560411311801</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.06488506949869291</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02828031683266818</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.0289681627487246</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1855856922956191</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1909469380057464</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02824724770673931</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02867076810602775</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.18558381882084</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1908960609875676</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.006189248257571555</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.006108335445557476</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>-0.005180657342870562</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.010949760017079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02649837794886936</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.00216943791457092</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.002452847697527288</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.003150007401004787</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02828031683266818</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9965412068691286</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1783988301929736</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1766481679995595</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.05514224275378449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.04833312344511861</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1673115821680634</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1663761255119037</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.001295919808739325</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.007036619613857101</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.01237478381747595</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01119964179079312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02619800157506115</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.0002617846905716489</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.002136426551916717</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0006049766702903067</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.0289681627487246</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9965412068691286</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1796356419769669</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1790960141128783</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.05128627787344374</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.04499382915885242</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1691289067979642</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1693202329880214</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.003612887643114466</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.009833754173311407</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.01162974731371829</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.09877795928101593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1212003767791936</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>0.008458274192584575</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.0031064600590342</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.02485706331674664</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1855856922956191</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1783988301929736</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1796356419769669</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9962551775768896</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.00650499891859493</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.005101118319428805</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9671279475054827</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9636124272150186</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>0.01207425970002184</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.01929671509109264</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.00803595184452513</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.09988707284289799</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1146286388595848</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.006732775632667945</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.007488645734608299</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.005177028076675237</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1909469380057464</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1766481679995595</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1790960141128783</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9962551775768896</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.004747408669007685</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.003433465123433242</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9637576149281919</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9674656862589517</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>0.01484565427333649</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.01655495053646209</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.005731408047335591</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.010949760017079</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03183836211167393</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.0006027880038255953</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.07147416745687842</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.0114441194205513</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02824724770673931</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.05514224275378449</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.05128627787344374</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.00650499891859493</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.004747408669007685</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9965412068691286</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1783988301929736</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1766481679995595</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.07728363343248934</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.01847788405551826</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.02106372445606372</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01119964179079312</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03193693123374369</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>7.802474915632231e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.07005205466780576</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.009129979013512082</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02867076810602775</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.04833312344511861</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.04499382915885242</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.005101118319428805</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.003433465123433242</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9965412068691286</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1796356419769669</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1790960141128783</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.07664802618564263</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.01683000377784708</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.02091714801683251</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.09877795928101593</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1107454872358377</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.002380666705134058</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01320926329927268</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.02640805621108534</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.18558381882084</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1673115821680634</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1691289067979642</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9671279475054827</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9637576149281919</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1783988301929736</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1796356419769669</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9962551775768896</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.01187978451316369</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.02361170955306847</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.01460839919070158</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.09988707284289799</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1042772118317857</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.00121530259207331</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.00760293083578353</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.0067412787320531</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1908960609875676</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1663761255119037</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1693202329880214</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9636124272150186</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9674656862589517</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1766481679995595</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1790960141128783</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9962551775768896</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.009822496596553695</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.02065228105006365</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.01481202686922518</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.0057198639122925</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.002525215928452512</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4794599807266118</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4784759567083854</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1560273465622858</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.006189248257571555</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.001295919808739325</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.003612887643114466</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>0.01207425970002184</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>0.01484565427333649</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.07728363343248934</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.07664802618564263</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.01187978451316369</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.009822496596553695</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.3249362060943712</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4922382777779906</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.01459529511211683</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.01212690690884965</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2046695256105535</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1065686406158044</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1026458729864969</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.006108335445557476</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.007036619613857101</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.009833754173311407</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.01929671509109264</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.01655495053646209</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.01847788405551826</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.01683000377784708</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.02361170955306847</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.02065228105006365</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.3249362060943712</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2237197551558697</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.0004309984725066209</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.007713874968821352</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9434392686286364</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.47233935114864</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.07537909183331307</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>-0.005180657342870562</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.01237478381747595</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.01162974731371829</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.00803595184452513</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.005731408047335591</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.02106372445606372</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.02091714801683251</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.01460839919070158</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.01481202686922518</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4922382777779906</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2237197551558697</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
